--- a/ТЕЛЕМЕТРИЯ/SD-actual.xlsx
+++ b/ТЕЛЕМЕТРИЯ/SD-actual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ученик 10\Desktop\CanSAD\ТЕЛЕМЕТРИЯ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F76F3D3-D779-4DC1-A21B-7203826FCAD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F329B810-7AD6-4A82-BAEB-BC5501822F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FAA43C7E-7477-429C-B918-F62340342FD6}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="20">
   <si>
     <t>Sporadic-A2</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>Земля</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -453,13 +456,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{739DEA40-3945-48CC-919B-2FAD2DA287E3}">
-  <dimension ref="A1:R32"/>
+  <dimension ref="A1:Y32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y17" sqref="Y17"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -1357,7 +1363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -1412,8 +1418,11 @@
       <c r="R17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Y17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -1469,7 +1478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -1525,7 +1534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -1581,7 +1590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -1637,7 +1646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -1693,7 +1702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -1749,7 +1758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -1805,7 +1814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -1861,7 +1870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -1917,7 +1926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -1973,7 +1982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>0</v>
       </c>
@@ -2029,7 +2038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -2085,7 +2094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -2141,7 +2150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>0</v>
       </c>
@@ -2197,7 +2206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>0</v>
       </c>

--- a/ТЕЛЕМЕТРИЯ/SD-actual.xlsx
+++ b/ТЕЛЕМЕТРИЯ/SD-actual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ученик 10\Desktop\CanSAD\ТЕЛЕМЕТРИЯ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F329B810-7AD6-4A82-BAEB-BC5501822F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B4E337F-398D-4448-9E9E-D166D88C201E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FAA43C7E-7477-429C-B918-F62340342FD6}"/>
   </bookViews>
@@ -459,7 +459,7 @@
   <dimension ref="A1:Y32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="B2" sqref="B2:B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -528,7 +528,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1926</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>1.96</v>
@@ -584,7 +584,7 @@
         <v>0</v>
       </c>
       <c r="B3">
-        <v>2950</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>1.9</v>
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="B4">
-        <v>3974</v>
+        <v>3</v>
       </c>
       <c r="C4">
         <v>1.96</v>
@@ -696,7 +696,7 @@
         <v>0</v>
       </c>
       <c r="B5">
-        <v>4998</v>
+        <v>4</v>
       </c>
       <c r="C5">
         <v>1.9</v>
@@ -752,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="B6">
-        <v>6024</v>
+        <v>5</v>
       </c>
       <c r="C6">
         <v>2.62</v>
@@ -808,7 +808,7 @@
         <v>0</v>
       </c>
       <c r="B7">
-        <v>7049</v>
+        <v>6</v>
       </c>
       <c r="C7">
         <v>50.08</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="B8">
-        <v>8073</v>
+        <v>7</v>
       </c>
       <c r="C8">
         <v>100.72</v>
@@ -920,7 +920,7 @@
         <v>0</v>
       </c>
       <c r="B9">
-        <v>9098</v>
+        <v>8</v>
       </c>
       <c r="C9">
         <v>140.15</v>
@@ -976,7 +976,7 @@
         <v>0</v>
       </c>
       <c r="B10">
-        <v>10122</v>
+        <v>9</v>
       </c>
       <c r="C10">
         <v>166.95</v>
@@ -1032,7 +1032,7 @@
         <v>0</v>
       </c>
       <c r="B11">
-        <v>11146</v>
+        <v>10</v>
       </c>
       <c r="C11">
         <v>183.62</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="B12">
-        <v>12173</v>
+        <v>11</v>
       </c>
       <c r="C12">
         <v>190.3</v>
@@ -1144,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="B13">
-        <v>13197</v>
+        <v>12</v>
       </c>
       <c r="C13">
         <v>187.49</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="B14">
-        <v>14222</v>
+        <v>13</v>
       </c>
       <c r="C14">
         <v>174.93</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="B15">
-        <v>15246</v>
+        <v>14</v>
       </c>
       <c r="C15">
         <v>148.80000000000001</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="B16">
-        <v>16271</v>
+        <v>15</v>
       </c>
       <c r="C16">
         <v>147.11000000000001</v>
@@ -1368,7 +1368,7 @@
         <v>0</v>
       </c>
       <c r="B17">
-        <v>17298</v>
+        <v>16</v>
       </c>
       <c r="C17">
         <v>124.91</v>
@@ -1427,7 +1427,7 @@
         <v>0</v>
       </c>
       <c r="B18">
-        <v>18322</v>
+        <v>17</v>
       </c>
       <c r="C18">
         <v>115.99</v>
@@ -1483,7 +1483,7 @@
         <v>0</v>
       </c>
       <c r="B19">
-        <v>19347</v>
+        <v>18</v>
       </c>
       <c r="C19">
         <v>90.12</v>
@@ -1539,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="B20">
-        <v>20371</v>
+        <v>19</v>
       </c>
       <c r="C20">
         <v>84.09</v>
@@ -1595,7 +1595,7 @@
         <v>0</v>
       </c>
       <c r="B21">
-        <v>21395</v>
+        <v>20</v>
       </c>
       <c r="C21">
         <v>65.83</v>
@@ -1651,7 +1651,7 @@
         <v>0</v>
       </c>
       <c r="B22">
-        <v>22420</v>
+        <v>21</v>
       </c>
       <c r="C22">
         <v>46.64</v>
@@ -1707,7 +1707,7 @@
         <v>0</v>
       </c>
       <c r="B23">
-        <v>23446</v>
+        <v>22</v>
       </c>
       <c r="C23">
         <v>39.01</v>
@@ -1763,7 +1763,7 @@
         <v>0</v>
       </c>
       <c r="B24">
-        <v>24471</v>
+        <v>23</v>
       </c>
       <c r="C24">
         <v>25.65</v>
@@ -1819,7 +1819,7 @@
         <v>0</v>
       </c>
       <c r="B25">
-        <v>25495</v>
+        <v>24</v>
       </c>
       <c r="C25">
         <v>8.8800000000000008</v>
@@ -1875,7 +1875,7 @@
         <v>0</v>
       </c>
       <c r="B26">
-        <v>26520</v>
+        <v>25</v>
       </c>
       <c r="C26">
         <v>0.91</v>
@@ -1931,7 +1931,7 @@
         <v>0</v>
       </c>
       <c r="B27">
-        <v>27544</v>
+        <v>26</v>
       </c>
       <c r="C27">
         <v>-0.75</v>
@@ -1987,7 +1987,7 @@
         <v>0</v>
       </c>
       <c r="B28">
-        <v>28568</v>
+        <v>27</v>
       </c>
       <c r="C28">
         <v>-0.4</v>
@@ -2043,7 +2043,7 @@
         <v>0</v>
       </c>
       <c r="B29">
-        <v>29594</v>
+        <v>28</v>
       </c>
       <c r="C29">
         <v>-0.56999999999999995</v>
@@ -2099,7 +2099,7 @@
         <v>0</v>
       </c>
       <c r="B30">
-        <v>30618</v>
+        <v>29</v>
       </c>
       <c r="C30">
         <v>-0.8</v>
@@ -2155,7 +2155,7 @@
         <v>0</v>
       </c>
       <c r="B31">
-        <v>31642</v>
+        <v>30</v>
       </c>
       <c r="C31">
         <v>-0.69</v>
@@ -2211,7 +2211,7 @@
         <v>0</v>
       </c>
       <c r="B32">
-        <v>32666</v>
+        <v>31</v>
       </c>
       <c r="C32">
         <v>-0.76</v>

--- a/ТЕЛЕМЕТРИЯ/SD-actual.xlsx
+++ b/ТЕЛЕМЕТРИЯ/SD-actual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ученик 10\Desktop\CanSAD\ТЕЛЕМЕТРИЯ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B4E337F-398D-4448-9E9E-D166D88C201E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{460CD7CF-BAA1-4F6E-9754-D4C314BCCAA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FAA43C7E-7477-429C-B918-F62340342FD6}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="21">
   <si>
     <t>Sporadic-A2</t>
   </si>
@@ -93,12 +93,15 @@
   <si>
     <t xml:space="preserve"> </t>
   </si>
+  <si>
+    <t>\\\\\</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,6 +114,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -134,16 +146,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -157,6 +172,1019 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Высота</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$C$2:$C$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>1.96</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.96</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.62</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50.08</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100.72</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>140.15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>166.95</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>183.62</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>190.3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>187.49</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>174.93</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>148.80000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>147.11000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>124.91</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>115.99</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>90.12</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>84.09</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>65.83</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>46.64</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>39.01</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>25.65</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8.8800000000000008</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.75</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.69</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.76</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000022-36C9-450F-BF39-37519574FC79}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="525926048"/>
+        <c:axId val="525914816"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="525926048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="525914816"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="525914816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="525926048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="236">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>28574</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185736</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>47371</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52004F2B-96F3-4221-A063-78B6302EC141}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -456,10 +1484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{739DEA40-3945-48CC-919B-2FAD2DA287E3}">
-  <dimension ref="A1:Y32"/>
+  <dimension ref="A1:Y35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B32"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2262,7 +3290,16 @@
         <v>1</v>
       </c>
     </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A35" r:id="rId1" xr:uid="{71FAFA97-1A40-4F5A-BB3C-809811FD6D0E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/ТЕЛЕМЕТРИЯ/SD-actual.xlsx
+++ b/ТЕЛЕМЕТРИЯ/SD-actual.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ученик 10\Desktop\CanSAD\ТЕЛЕМЕТРИЯ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{460CD7CF-BAA1-4F6E-9754-D4C314BCCAA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCC6B067-C6CF-4DD8-A29F-E143BE079F7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FAA43C7E-7477-429C-B918-F62340342FD6}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Лист1!$M$2:$M$32</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -227,7 +230,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Высота</c:v>
+            <c:v>Давление</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="22225" cap="rnd">
@@ -249,102 +252,102 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$C$2:$C$32</c:f>
+              <c:f>Лист1!$M$2:$M$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>1.96</c:v>
+                  <c:v>99102.12</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.9</c:v>
+                  <c:v>99102.75</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.96</c:v>
+                  <c:v>99102.1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.9</c:v>
+                  <c:v>99111.82</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.62</c:v>
+                  <c:v>99094.23</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>50.08</c:v>
+                  <c:v>98535.72</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>100.72</c:v>
+                  <c:v>97942.47</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>140.15</c:v>
+                  <c:v>97482.67</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>166.95</c:v>
+                  <c:v>97171.08</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>183.62</c:v>
+                  <c:v>96977.71</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>190.3</c:v>
+                  <c:v>96898.78</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>187.49</c:v>
+                  <c:v>96932.83</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>174.93</c:v>
+                  <c:v>97078.49</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>148.80000000000001</c:v>
+                  <c:v>97381.92</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>147.11000000000001</c:v>
+                  <c:v>97401.600000000006</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>124.91</c:v>
+                  <c:v>97660.17</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>115.99</c:v>
+                  <c:v>97764.17</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>90.12</c:v>
+                  <c:v>98066.42</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>84.09</c:v>
+                  <c:v>98136.97</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>65.83</c:v>
+                  <c:v>98350.89</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>46.64</c:v>
+                  <c:v>98576.16</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>39.01</c:v>
+                  <c:v>98665.74</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>25.65</c:v>
+                  <c:v>98822.9</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>8.8800000000000008</c:v>
+                  <c:v>99020.41</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.91</c:v>
+                  <c:v>99114.42</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-0.75</c:v>
+                  <c:v>99134</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-0.4</c:v>
+                  <c:v>99129.96</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-0.56999999999999995</c:v>
+                  <c:v>99131.89</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-0.8</c:v>
+                  <c:v>99134.58</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-0.69</c:v>
+                  <c:v>99133.35</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-0.76</c:v>
+                  <c:v>99134.11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -352,7 +355,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000022-36C9-450F-BF39-37519574FC79}"/>
+              <c16:uniqueId val="{00000000-E688-440C-8B06-B1511946DD95}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -400,6 +403,63 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1200"/>
+                  <a:t>Время,</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1200" baseline="0"/>
+                  <a:t> с</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -440,6 +500,7 @@
         <c:axId val="525914816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="96800"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -468,6 +529,64 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1200"/>
+                  <a:t>Давление,</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1200" baseline="0"/>
+                  <a:t> Па</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="1200"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1151,26 +1270,28 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>28574</xdr:colOff>
+      <xdr:colOff>582706</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>185736</xdr:rowOff>
+      <xdr:rowOff>4543</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>47371</xdr:colOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>28322</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:rowOff>33338</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Диаграмма 1">
+        <xdr:cNvPr id="3" name="Диаграмма 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52004F2B-96F3-4221-A063-78B6302EC141}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C72F003-1CC0-4264-93D6-8B5FACDC0188}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1486,8 +1607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{739DEA40-3945-48CC-919B-2FAD2DA287E3}">
   <dimension ref="A1:Y35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="R16" sqref="R16"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AL15" sqref="AL15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3296,10 +3417,7 @@
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A35" r:id="rId1" xr:uid="{71FAFA97-1A40-4F5A-BB3C-809811FD6D0E}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/ТЕЛЕМЕТРИЯ/SD-actual.xlsx
+++ b/ТЕЛЕМЕТРИЯ/SD-actual.xlsx
@@ -8,16 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ученик 10\Desktop\CanSAD\ТЕЛЕМЕТРИЯ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCC6B067-C6CF-4DD8-A29F-E143BE079F7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7116B84-6C11-4887-8B05-2F7195589AE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FAA43C7E-7477-429C-B918-F62340342FD6}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Лист1!$M$2:$M$32</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -676,7 +673,547 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Высота</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$C$2:$C$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>1.96</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.96</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.62</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50.08</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100.72</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>140.15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>166.95</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>183.62</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>190.3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>187.49</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>174.93</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>148.80000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>147.11000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>124.91</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>115.99</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>90.12</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>84.09</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>65.83</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>46.64</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>39.01</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>25.65</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8.8800000000000008</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.75</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.69</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.76</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-5A22-4F98-AC25-45EBEF2C9CBF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="525926048"/>
+        <c:axId val="525914816"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="525926048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1200"/>
+                  <a:t>Время,</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1200" baseline="0"/>
+                  <a:t> с</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="525914816"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="525914816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="200"/>
+          <c:min val="-1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1200"/>
+                  <a:t>Высота,</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1200" baseline="0"/>
+                  <a:t> м</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="1200"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="525926048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1265,6 +1802,555 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="236">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1300,6 +2386,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>45691</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>38320</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Диаграмма 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7370358B-F790-4C76-A7DC-EF3D7CE21CED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1607,8 +2731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{739DEA40-3945-48CC-919B-2FAD2DA287E3}">
   <dimension ref="A1:Y35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AL15" sqref="AL15"/>
+    <sheetView tabSelected="1" topLeftCell="Q38" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R54" sqref="R54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ТЕЛЕМЕТРИЯ/SD-actual.xlsx
+++ b/ТЕЛЕМЕТРИЯ/SD-actual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ученик 10\Desktop\CanSAD\ТЕЛЕМЕТРИЯ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7116B84-6C11-4887-8B05-2F7195589AE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C08A706B-70D9-4749-9D8E-A19EF10027A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FAA43C7E-7477-429C-B918-F62340342FD6}"/>
   </bookViews>
@@ -1173,6 +1173,513 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Температура</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$N$2:$N$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>13.78</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.79</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.82</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.72</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13.66</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.61</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13.54</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13.48</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.44</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13.32</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12.73</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12.72</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>12.47</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>12.39</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>12.28</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>12.15</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>11.87</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>11.65</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>11.57</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>11.46</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>11.39</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>11.33</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>11.41</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>11.46</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>11.51</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>11.54</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>11.57</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6989-439A-854D-97F74F5A5436}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="525926048"/>
+        <c:axId val="525914816"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="525926048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1200"/>
+                  <a:t>Время,</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1200" baseline="0"/>
+                  <a:t> с</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="525914816"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="525914816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="15"/>
+          <c:min val="10"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1200"/>
+                  <a:t>Температура,</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1200" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1200" baseline="0">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>℃</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="1200"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="525926048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1253,6 +1760,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="236">
   <cs:axisTitle>
@@ -2351,19 +2898,568 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="236">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>582706</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>549089</xdr:colOff>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>4543</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>28322</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>599823</xdr:colOff>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>33338</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2424,6 +3520,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>1681</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>165847</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>56897</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>4142</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Диаграмма 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E36883EE-1957-41FE-90DD-E7363F02DE5C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2731,8 +3865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{739DEA40-3945-48CC-919B-2FAD2DA287E3}">
   <dimension ref="A1:Y35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q38" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R54" sqref="R54"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AJ29" sqref="AJ29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ТЕЛЕМЕТРИЯ/SD-actual.xlsx
+++ b/ТЕЛЕМЕТРИЯ/SD-actual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ученик 10\Desktop\CanSAD\ТЕЛЕМЕТРИЯ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C08A706B-70D9-4749-9D8E-A19EF10027A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACB9938E-CBE7-4C56-9027-5C63C9BFF54E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FAA43C7E-7477-429C-B918-F62340342FD6}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="22">
   <si>
     <t>Sporadic-A2</t>
   </si>
@@ -96,6 +96,9 @@
   <si>
     <t>\\\\\</t>
   </si>
+  <si>
+    <t>Мод Уск</t>
+  </si>
 </sst>
 </file>
 
@@ -129,12 +132,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -150,12 +159,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -1680,6 +1693,509 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Модуль ускорения</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$S$2:$S$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.64</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.64</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.22</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.82</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.1299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.1299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.1299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.24</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.76</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.76</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.76</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.37</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.37</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5.37</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5.37</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.37</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.37</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.37</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5.37</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E450-4B87-8C74-01F7FD25D333}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="525926048"/>
+        <c:axId val="525914816"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="525926048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1200"/>
+                  <a:t>Время,</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1200" baseline="0"/>
+                  <a:t> с</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="525914816"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="525914816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="7"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1200"/>
+                  <a:t>Ускорение,</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1200" baseline="0"/>
+                  <a:t> м/с</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200" baseline="0"/>
+                  <a:t>^2</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="525926048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1800,6 +2316,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="236">
   <cs:axisTitle>
@@ -2899,6 +3455,555 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="236">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="236">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3558,6 +4663,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>64741</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>28795</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Диаграмма 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91682B63-4F7E-416B-8F15-CF97B0EFE0A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3865,23 +5008,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{739DEA40-3945-48CC-919B-2FAD2DA287E3}">
   <dimension ref="A1:Y35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AJ29" sqref="AJ29"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T33" sqref="T33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="19" max="19" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -3911,10 +5055,10 @@
       <c r="L1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>14</v>
       </c>
       <c r="O1" s="1" t="s">
@@ -3929,15 +5073,18 @@
       <c r="R1" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="S1" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="4">
         <v>1.96</v>
       </c>
       <c r="D2">
@@ -3967,10 +5114,10 @@
       <c r="L2">
         <v>61</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="4">
         <v>99102.12</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="4">
         <v>13.78</v>
       </c>
       <c r="O2">
@@ -3985,15 +5132,18 @@
       <c r="R2">
         <v>0</v>
       </c>
+      <c r="S2">
+        <v>0.09</v>
+      </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="4">
         <v>1.9</v>
       </c>
       <c r="D3">
@@ -4023,10 +5173,10 @@
       <c r="L3">
         <v>61</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="4">
         <v>99102.75</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="4">
         <v>13.79</v>
       </c>
       <c r="O3">
@@ -4041,15 +5191,18 @@
       <c r="R3">
         <v>0</v>
       </c>
+      <c r="S3">
+        <v>0.09</v>
+      </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="4">
         <v>1.96</v>
       </c>
       <c r="D4">
@@ -4079,10 +5232,10 @@
       <c r="L4">
         <v>55</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="4">
         <v>99102.1</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="4">
         <v>13.8</v>
       </c>
       <c r="O4">
@@ -4097,15 +5250,18 @@
       <c r="R4">
         <v>0</v>
       </c>
+      <c r="S4">
+        <v>0.06</v>
+      </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="4">
         <v>1.9</v>
       </c>
       <c r="D5">
@@ -4135,10 +5291,10 @@
       <c r="L5">
         <v>60</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="4">
         <v>99111.82</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="4">
         <v>13.82</v>
       </c>
       <c r="O5">
@@ -4153,15 +5309,18 @@
       <c r="R5">
         <v>0</v>
       </c>
+      <c r="S5">
+        <v>0.06</v>
+      </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="4">
         <v>2.62</v>
       </c>
       <c r="D6">
@@ -4191,10 +5350,10 @@
       <c r="L6">
         <v>54</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="4">
         <v>99094.23</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="4">
         <v>13.8</v>
       </c>
       <c r="O6">
@@ -4209,15 +5368,18 @@
       <c r="R6">
         <v>0</v>
       </c>
+      <c r="S6">
+        <v>0.48</v>
+      </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
       <c r="B7">
         <v>6</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="4">
         <v>50.08</v>
       </c>
       <c r="D7">
@@ -4247,10 +5409,10 @@
       <c r="L7">
         <v>-16</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="4">
         <v>98535.72</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="4">
         <v>13.8</v>
       </c>
       <c r="O7">
@@ -4265,15 +5427,18 @@
       <c r="R7">
         <v>0</v>
       </c>
+      <c r="S7">
+        <v>0.46</v>
+      </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>0</v>
       </c>
       <c r="B8">
         <v>7</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="4">
         <v>100.72</v>
       </c>
       <c r="D8">
@@ -4303,10 +5468,10 @@
       <c r="L8">
         <v>-68</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="4">
         <v>97942.47</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="4">
         <v>13.72</v>
       </c>
       <c r="O8">
@@ -4321,15 +5486,18 @@
       <c r="R8">
         <v>0</v>
       </c>
+      <c r="S8">
+        <v>1.4</v>
+      </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
       <c r="B9">
         <v>8</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="4">
         <v>140.15</v>
       </c>
       <c r="D9">
@@ -4359,10 +5527,10 @@
       <c r="L9">
         <v>58</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="4">
         <v>97482.67</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="4">
         <v>13.66</v>
       </c>
       <c r="O9">
@@ -4377,15 +5545,18 @@
       <c r="R9">
         <v>0</v>
       </c>
+      <c r="S9">
+        <v>0.51</v>
+      </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
       <c r="B10">
         <v>9</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="4">
         <v>166.95</v>
       </c>
       <c r="D10">
@@ -4415,10 +5586,10 @@
       <c r="L10">
         <v>69</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="4">
         <v>97171.08</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="4">
         <v>13.61</v>
       </c>
       <c r="O10">
@@ -4433,15 +5604,18 @@
       <c r="R10">
         <v>0</v>
       </c>
+      <c r="S10">
+        <v>0.83</v>
+      </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
       <c r="B11">
         <v>10</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="4">
         <v>183.62</v>
       </c>
       <c r="D11">
@@ -4471,10 +5645,10 @@
       <c r="L11">
         <v>-80</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="4">
         <v>96977.71</v>
       </c>
-      <c r="N11">
+      <c r="N11" s="4">
         <v>13.54</v>
       </c>
       <c r="O11">
@@ -4489,15 +5663,18 @@
       <c r="R11">
         <v>0</v>
       </c>
+      <c r="S11">
+        <v>0.46</v>
+      </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
       <c r="B12">
         <v>11</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="4">
         <v>190.3</v>
       </c>
       <c r="D12">
@@ -4527,10 +5704,10 @@
       <c r="L12">
         <v>-203</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="4">
         <v>96898.78</v>
       </c>
-      <c r="N12">
+      <c r="N12" s="4">
         <v>13.5</v>
       </c>
       <c r="O12">
@@ -4545,15 +5722,18 @@
       <c r="R12">
         <v>0</v>
       </c>
+      <c r="S12">
+        <v>0.46</v>
+      </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>0</v>
       </c>
       <c r="B13">
         <v>12</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="4">
         <v>187.49</v>
       </c>
       <c r="D13">
@@ -4583,10 +5763,10 @@
       <c r="L13">
         <v>-256</v>
       </c>
-      <c r="M13">
+      <c r="M13" s="4">
         <v>96932.83</v>
       </c>
-      <c r="N13">
+      <c r="N13" s="4">
         <v>13.48</v>
       </c>
       <c r="O13">
@@ -4601,15 +5781,18 @@
       <c r="R13">
         <v>0</v>
       </c>
+      <c r="S13">
+        <v>0.43</v>
+      </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>0</v>
       </c>
       <c r="B14">
         <v>13</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="4">
         <v>174.93</v>
       </c>
       <c r="D14">
@@ -4639,10 +5822,10 @@
       <c r="L14">
         <v>-190</v>
       </c>
-      <c r="M14">
+      <c r="M14" s="4">
         <v>97078.49</v>
       </c>
-      <c r="N14">
+      <c r="N14" s="4">
         <v>13.44</v>
       </c>
       <c r="O14">
@@ -4657,15 +5840,18 @@
       <c r="R14">
         <v>0</v>
       </c>
+      <c r="S14">
+        <v>1.64</v>
+      </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>0</v>
       </c>
       <c r="B15">
         <v>14</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="4">
         <v>148.80000000000001</v>
       </c>
       <c r="D15">
@@ -4695,10 +5881,10 @@
       <c r="L15">
         <v>-38</v>
       </c>
-      <c r="M15">
+      <c r="M15" s="4">
         <v>97381.92</v>
       </c>
-      <c r="N15">
+      <c r="N15" s="4">
         <v>13.32</v>
       </c>
       <c r="O15">
@@ -4713,15 +5899,18 @@
       <c r="R15">
         <v>0</v>
       </c>
+      <c r="S15">
+        <v>1.64</v>
+      </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>0</v>
       </c>
       <c r="B16">
         <v>15</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="4">
         <v>147.11000000000001</v>
       </c>
       <c r="D16">
@@ -4751,10 +5940,10 @@
       <c r="L16">
         <v>153</v>
       </c>
-      <c r="M16">
+      <c r="M16" s="4">
         <v>97401.600000000006</v>
       </c>
-      <c r="N16">
+      <c r="N16" s="4">
         <v>12.73</v>
       </c>
       <c r="O16">
@@ -4768,6 +5957,9 @@
       </c>
       <c r="R16">
         <v>0</v>
+      </c>
+      <c r="S16">
+        <v>4.22</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
@@ -4777,7 +5969,7 @@
       <c r="B17">
         <v>16</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="4">
         <v>124.91</v>
       </c>
       <c r="D17">
@@ -4807,10 +5999,10 @@
       <c r="L17">
         <v>181</v>
       </c>
-      <c r="M17">
+      <c r="M17" s="4">
         <v>97660.17</v>
       </c>
-      <c r="N17">
+      <c r="N17" s="4">
         <v>12.72</v>
       </c>
       <c r="O17">
@@ -4824,6 +6016,9 @@
       </c>
       <c r="R17">
         <v>0</v>
+      </c>
+      <c r="S17">
+        <v>4.82</v>
       </c>
       <c r="Y17" t="s">
         <v>19</v>
@@ -4836,7 +6031,7 @@
       <c r="B18">
         <v>17</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="4">
         <v>115.99</v>
       </c>
       <c r="D18">
@@ -4866,10 +6061,10 @@
       <c r="L18">
         <v>212</v>
       </c>
-      <c r="M18">
+      <c r="M18" s="4">
         <v>97764.17</v>
       </c>
-      <c r="N18">
+      <c r="N18" s="4">
         <v>12.47</v>
       </c>
       <c r="O18">
@@ -4883,6 +6078,9 @@
       </c>
       <c r="R18">
         <v>0</v>
+      </c>
+      <c r="S18">
+        <v>1.1299999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
@@ -4892,7 +6090,7 @@
       <c r="B19">
         <v>18</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="4">
         <v>90.12</v>
       </c>
       <c r="D19">
@@ -4922,10 +6120,10 @@
       <c r="L19">
         <v>-26</v>
       </c>
-      <c r="M19">
+      <c r="M19" s="4">
         <v>98066.42</v>
       </c>
-      <c r="N19">
+      <c r="N19" s="4">
         <v>12.39</v>
       </c>
       <c r="O19">
@@ -4939,6 +6137,9 @@
       </c>
       <c r="R19">
         <v>0</v>
+      </c>
+      <c r="S19">
+        <v>1.1299999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
@@ -4948,7 +6149,7 @@
       <c r="B20">
         <v>19</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="4">
         <v>84.09</v>
       </c>
       <c r="D20">
@@ -4978,10 +6179,10 @@
       <c r="L20">
         <v>43</v>
       </c>
-      <c r="M20">
+      <c r="M20" s="4">
         <v>98136.97</v>
       </c>
-      <c r="N20">
+      <c r="N20" s="4">
         <v>12.28</v>
       </c>
       <c r="O20">
@@ -4995,6 +6196,9 @@
       </c>
       <c r="R20">
         <v>0</v>
+      </c>
+      <c r="S20">
+        <v>1.1299999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
@@ -5004,7 +6208,7 @@
       <c r="B21">
         <v>20</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="4">
         <v>65.83</v>
       </c>
       <c r="D21">
@@ -5034,10 +6238,10 @@
       <c r="L21">
         <v>9</v>
       </c>
-      <c r="M21">
+      <c r="M21" s="4">
         <v>98350.89</v>
       </c>
-      <c r="N21">
+      <c r="N21" s="4">
         <v>12.15</v>
       </c>
       <c r="O21">
@@ -5051,6 +6255,9 @@
       </c>
       <c r="R21">
         <v>0</v>
+      </c>
+      <c r="S21">
+        <v>4.24</v>
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
@@ -5060,7 +6267,7 @@
       <c r="B22">
         <v>21</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="4">
         <v>46.64</v>
       </c>
       <c r="D22">
@@ -5090,10 +6297,10 @@
       <c r="L22">
         <v>96</v>
       </c>
-      <c r="M22">
+      <c r="M22" s="4">
         <v>98576.16</v>
       </c>
-      <c r="N22">
+      <c r="N22" s="4">
         <v>11.87</v>
       </c>
       <c r="O22">
@@ -5107,6 +6314,9 @@
       </c>
       <c r="R22">
         <v>0</v>
+      </c>
+      <c r="S22">
+        <v>6.76</v>
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
@@ -5116,7 +6326,7 @@
       <c r="B23">
         <v>22</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="4">
         <v>39.01</v>
       </c>
       <c r="D23">
@@ -5146,10 +6356,10 @@
       <c r="L23">
         <v>207</v>
       </c>
-      <c r="M23">
+      <c r="M23" s="4">
         <v>98665.74</v>
       </c>
-      <c r="N23">
+      <c r="N23" s="4">
         <v>11.65</v>
       </c>
       <c r="O23">
@@ -5163,6 +6373,9 @@
       </c>
       <c r="R23">
         <v>0</v>
+      </c>
+      <c r="S23">
+        <v>6.76</v>
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
@@ -5172,7 +6385,7 @@
       <c r="B24">
         <v>23</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="4">
         <v>25.65</v>
       </c>
       <c r="D24">
@@ -5202,10 +6415,10 @@
       <c r="L24">
         <v>121</v>
       </c>
-      <c r="M24">
+      <c r="M24" s="4">
         <v>98822.9</v>
       </c>
-      <c r="N24">
+      <c r="N24" s="4">
         <v>11.57</v>
       </c>
       <c r="O24">
@@ -5219,6 +6432,9 @@
       </c>
       <c r="R24">
         <v>0</v>
+      </c>
+      <c r="S24">
+        <v>6.76</v>
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
@@ -5228,7 +6444,7 @@
       <c r="B25">
         <v>24</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="4">
         <v>8.8800000000000008</v>
       </c>
       <c r="D25">
@@ -5258,10 +6474,10 @@
       <c r="L25">
         <v>120</v>
       </c>
-      <c r="M25">
+      <c r="M25" s="4">
         <v>99020.41</v>
       </c>
-      <c r="N25">
+      <c r="N25" s="4">
         <v>11.46</v>
       </c>
       <c r="O25">
@@ -5275,6 +6491,9 @@
       </c>
       <c r="R25">
         <v>0</v>
+      </c>
+      <c r="S25">
+        <v>5.37</v>
       </c>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.25">
@@ -5284,7 +6503,7 @@
       <c r="B26">
         <v>25</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="4">
         <v>0.91</v>
       </c>
       <c r="D26">
@@ -5314,10 +6533,10 @@
       <c r="L26">
         <v>185</v>
       </c>
-      <c r="M26">
+      <c r="M26" s="4">
         <v>99114.42</v>
       </c>
-      <c r="N26">
+      <c r="N26" s="4">
         <v>11.39</v>
       </c>
       <c r="O26">
@@ -5331,6 +6550,9 @@
       </c>
       <c r="R26">
         <v>1</v>
+      </c>
+      <c r="S26">
+        <v>5.37</v>
       </c>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.25">
@@ -5340,7 +6562,7 @@
       <c r="B27">
         <v>26</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="4">
         <v>-0.75</v>
       </c>
       <c r="D27">
@@ -5370,10 +6592,10 @@
       <c r="L27">
         <v>-63</v>
       </c>
-      <c r="M27">
+      <c r="M27" s="4">
         <v>99134</v>
       </c>
-      <c r="N27">
+      <c r="N27" s="4">
         <v>11.33</v>
       </c>
       <c r="O27">
@@ -5387,6 +6609,9 @@
       </c>
       <c r="R27">
         <v>1</v>
+      </c>
+      <c r="S27">
+        <v>5.37</v>
       </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.25">
@@ -5396,7 +6621,7 @@
       <c r="B28">
         <v>27</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="4">
         <v>-0.4</v>
       </c>
       <c r="D28">
@@ -5426,10 +6651,10 @@
       <c r="L28">
         <v>7</v>
       </c>
-      <c r="M28">
+      <c r="M28" s="4">
         <v>99129.96</v>
       </c>
-      <c r="N28">
+      <c r="N28" s="4">
         <v>11.41</v>
       </c>
       <c r="O28">
@@ -5443,6 +6668,9 @@
       </c>
       <c r="R28">
         <v>1</v>
+      </c>
+      <c r="S28">
+        <v>5.37</v>
       </c>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.25">
@@ -5452,7 +6680,7 @@
       <c r="B29">
         <v>28</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="4">
         <v>-0.56999999999999995</v>
       </c>
       <c r="D29">
@@ -5482,10 +6710,10 @@
       <c r="L29">
         <v>-11</v>
       </c>
-      <c r="M29">
+      <c r="M29" s="4">
         <v>99131.89</v>
       </c>
-      <c r="N29">
+      <c r="N29" s="4">
         <v>11.46</v>
       </c>
       <c r="O29">
@@ -5499,6 +6727,9 @@
       </c>
       <c r="R29">
         <v>1</v>
+      </c>
+      <c r="S29">
+        <v>5.37</v>
       </c>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
@@ -5508,7 +6739,7 @@
       <c r="B30">
         <v>29</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="4">
         <v>-0.8</v>
       </c>
       <c r="D30">
@@ -5538,10 +6769,10 @@
       <c r="L30">
         <v>-7</v>
       </c>
-      <c r="M30">
+      <c r="M30" s="4">
         <v>99134.58</v>
       </c>
-      <c r="N30">
+      <c r="N30" s="4">
         <v>11.51</v>
       </c>
       <c r="O30">
@@ -5555,6 +6786,9 @@
       </c>
       <c r="R30">
         <v>1</v>
+      </c>
+      <c r="S30">
+        <v>5.37</v>
       </c>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
@@ -5564,7 +6798,7 @@
       <c r="B31">
         <v>30</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="4">
         <v>-0.69</v>
       </c>
       <c r="D31">
@@ -5594,10 +6828,10 @@
       <c r="L31">
         <v>-3</v>
       </c>
-      <c r="M31">
+      <c r="M31" s="4">
         <v>99133.35</v>
       </c>
-      <c r="N31">
+      <c r="N31" s="4">
         <v>11.54</v>
       </c>
       <c r="O31">
@@ -5611,6 +6845,9 @@
       </c>
       <c r="R31">
         <v>1</v>
+      </c>
+      <c r="S31">
+        <v>5.37</v>
       </c>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
@@ -5650,10 +6887,10 @@
       <c r="L32">
         <v>2</v>
       </c>
-      <c r="M32">
+      <c r="M32" s="4">
         <v>99134.11</v>
       </c>
-      <c r="N32">
+      <c r="N32" s="4">
         <v>11.57</v>
       </c>
       <c r="O32">
@@ -5667,6 +6904,9 @@
       </c>
       <c r="R32">
         <v>1</v>
+      </c>
+      <c r="S32">
+        <v>5.37</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">

--- a/ТЕЛЕМЕТРИЯ/SD-actual.xlsx
+++ b/ТЕЛЕМЕТРИЯ/SD-actual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ученик 10\Desktop\CanSAD\ТЕЛЕМЕТРИЯ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACB9938E-CBE7-4C56-9027-5C63C9BFF54E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C53C7EA6-71A3-4ED5-A28A-20F2100DE9FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FAA43C7E-7477-429C-B918-F62340342FD6}"/>
   </bookViews>
@@ -2196,6 +2196,827 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Проекции</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> ускорений на оси</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Ay</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$E$2:$E$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>8.18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.19</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.47</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.64</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.36</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.21</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.99</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.48</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.5299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.84</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.27</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.33</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.16</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.34</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-99B0-44FB-B908-7B45B0FF85E6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Ax</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent2">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$D$2:$D$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.61</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.51</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.35</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.05</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.79</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.1299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.04</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.45</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.15</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.37</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.91</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8.69</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8.0299999999999994</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8.0299999999999994</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8.06</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8.0399999999999991</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8.0500000000000007</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-99B0-44FB-B908-7B45B0FF85E6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Az</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent3">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$F$2:$F$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.42</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.4499999999999993</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.63</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.18</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.24</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9.33</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.76</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.51</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.88</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.87</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-99B0-44FB-B908-7B45B0FF85E6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="525926048"/>
+        <c:axId val="525914816"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="525926048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Время, с</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="525914816"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="525914816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="35"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Ускорение, м/с</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>^2</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="525926048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2356,6 +3177,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="236">
   <cs:axisTitle>
@@ -4004,6 +4865,555 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="236">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="236">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4670,15 +6080,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>64741</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>636241</xdr:colOff>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>28795</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4701,6 +6111,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>24493</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>96038</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>53288</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Диаграмма 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B3F6598-74E0-4752-BA9E-22010B846C78}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5008,8 +6456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{739DEA40-3945-48CC-919B-2FAD2DA287E3}">
   <dimension ref="A1:Y35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T33" sqref="T33"/>
+    <sheetView tabSelected="1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="AW7" sqref="AW7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6909,7 +8357,21 @@
         <v>5.37</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D33">
+        <f>MAX(D2:D32)</f>
+        <v>16</v>
+      </c>
+      <c r="E33">
+        <f>MAX(E2:E32)</f>
+        <v>16</v>
+      </c>
+      <c r="F33">
+        <f>MAX(F2:F32)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>20</v>
       </c>

--- a/ТЕЛЕМЕТРИЯ/SD-actual.xlsx
+++ b/ТЕЛЕМЕТРИЯ/SD-actual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ученик 10\Desktop\CanSAD\ТЕЛЕМЕТРИЯ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C53C7EA6-71A3-4ED5-A28A-20F2100DE9FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A880DB9-5EDB-4903-94A8-A12CF3B10912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FAA43C7E-7477-429C-B918-F62340342FD6}"/>
   </bookViews>
@@ -1768,102 +1768,102 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$S$2:$S$32</c:f>
+              <c:f>Лист1!$U$2:$U$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>0.09</c:v>
+                  <c:v>8.1805195434030971</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.09</c:v>
+                  <c:v>8.181772424114472</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.06</c:v>
+                  <c:v>8.1802261582428155</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.06</c:v>
+                  <c:v>8.1950106772352651</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.48</c:v>
+                  <c:v>16.007248358165747</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.46</c:v>
+                  <c:v>1.6746044309030117</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.4</c:v>
+                  <c:v>2.6161421979701331</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.51</c:v>
+                  <c:v>1.5541557193537587</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.83</c:v>
+                  <c:v>1.2436237373096415</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.46</c:v>
+                  <c:v>0.6166846844214634</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.46</c:v>
+                  <c:v>0.53385391260156556</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.43</c:v>
+                  <c:v>0.55072679252057455</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.64</c:v>
+                  <c:v>4.7990207334413553</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.64</c:v>
+                  <c:v>11.265970885813614</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.22</c:v>
+                  <c:v>7.6865466888583978</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.82</c:v>
+                  <c:v>9.7317367411988691</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.1299999999999999</c:v>
+                  <c:v>7.7132807546464948</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.1299999999999999</c:v>
+                  <c:v>5.8311233909084796</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.1299999999999999</c:v>
+                  <c:v>7.3887346683989135</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.24</c:v>
+                  <c:v>6.6948114237818528</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6.76</c:v>
+                  <c:v>8.6363997128433105</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6.76</c:v>
+                  <c:v>9.6244428410168243</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>6.76</c:v>
+                  <c:v>8.7700627135728055</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5.37</c:v>
+                  <c:v>7.6898504536824381</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5.37</c:v>
+                  <c:v>22.748090029714582</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5.37</c:v>
+                  <c:v>9.1639838498329969</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5.37</c:v>
+                  <c:v>8.0818995291948532</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5.37</c:v>
+                  <c:v>8.0816458719743469</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5.37</c:v>
+                  <c:v>8.1082180533086312</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5.37</c:v>
+                  <c:v>8.0904882423744979</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>5.37</c:v>
+                  <c:v>8.0991048888133328</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2016,7 +2016,7 @@
         <c:axId val="525914816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="7"/>
+          <c:max val="23"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -6043,15 +6043,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>37</xdr:col>
-      <xdr:colOff>1681</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>165847</xdr:rowOff>
+      <xdr:colOff>15289</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>43383</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>53</xdr:col>
-      <xdr:colOff>56897</xdr:colOff>
+      <xdr:colOff>70505</xdr:colOff>
       <xdr:row>74</xdr:row>
-      <xdr:rowOff>4142</xdr:rowOff>
+      <xdr:rowOff>72178</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6080,16 +6080,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>553811</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>136071</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>636241</xdr:colOff>
-      <xdr:row>112</xdr:row>
-      <xdr:rowOff>28795</xdr:rowOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>609027</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>164866</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6456,8 +6456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{739DEA40-3945-48CC-919B-2FAD2DA287E3}">
   <dimension ref="A1:Y35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="AW7" sqref="AW7"/>
+    <sheetView tabSelected="1" topLeftCell="U1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AQ18" sqref="AQ18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6466,7 +6466,7 @@
     <col min="19" max="19" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -6525,7 +6525,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -6583,8 +6583,12 @@
       <c r="S2">
         <v>0.09</v>
       </c>
+      <c r="U2">
+        <f>SQRT(D2*D2+E2*E2+F2*F2)</f>
+        <v>8.1805195434030971</v>
+      </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -6642,8 +6646,12 @@
       <c r="S3">
         <v>0.09</v>
       </c>
+      <c r="U3">
+        <f t="shared" ref="U3:U32" si="0">SQRT(D3*D3+E3*E3+F3*F3)</f>
+        <v>8.181772424114472</v>
+      </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -6701,8 +6709,12 @@
       <c r="S4">
         <v>0.06</v>
       </c>
+      <c r="U4">
+        <f t="shared" si="0"/>
+        <v>8.1802261582428155</v>
+      </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -6760,8 +6772,12 @@
       <c r="S5">
         <v>0.06</v>
       </c>
+      <c r="U5">
+        <f t="shared" si="0"/>
+        <v>8.1950106772352651</v>
+      </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -6819,8 +6835,12 @@
       <c r="S6">
         <v>0.48</v>
       </c>
+      <c r="U6">
+        <f t="shared" si="0"/>
+        <v>16.007248358165747</v>
+      </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -6878,8 +6898,12 @@
       <c r="S7">
         <v>0.46</v>
       </c>
+      <c r="U7">
+        <f t="shared" si="0"/>
+        <v>1.6746044309030117</v>
+      </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -6937,8 +6961,12 @@
       <c r="S8">
         <v>1.4</v>
       </c>
+      <c r="U8">
+        <f t="shared" si="0"/>
+        <v>2.6161421979701331</v>
+      </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -6996,8 +7024,12 @@
       <c r="S9">
         <v>0.51</v>
       </c>
+      <c r="U9">
+        <f t="shared" si="0"/>
+        <v>1.5541557193537587</v>
+      </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -7055,8 +7087,12 @@
       <c r="S10">
         <v>0.83</v>
       </c>
+      <c r="U10">
+        <f t="shared" si="0"/>
+        <v>1.2436237373096415</v>
+      </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -7114,8 +7150,12 @@
       <c r="S11">
         <v>0.46</v>
       </c>
+      <c r="U11">
+        <f t="shared" si="0"/>
+        <v>0.6166846844214634</v>
+      </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -7173,8 +7213,12 @@
       <c r="S12">
         <v>0.46</v>
       </c>
+      <c r="U12">
+        <f t="shared" si="0"/>
+        <v>0.53385391260156556</v>
+      </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -7232,8 +7276,12 @@
       <c r="S13">
         <v>0.43</v>
       </c>
+      <c r="U13">
+        <f t="shared" si="0"/>
+        <v>0.55072679252057455</v>
+      </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -7291,8 +7339,12 @@
       <c r="S14">
         <v>1.64</v>
       </c>
+      <c r="U14">
+        <f t="shared" si="0"/>
+        <v>4.7990207334413553</v>
+      </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -7350,8 +7402,12 @@
       <c r="S15">
         <v>1.64</v>
       </c>
+      <c r="U15">
+        <f t="shared" si="0"/>
+        <v>11.265970885813614</v>
+      </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -7408,6 +7464,10 @@
       </c>
       <c r="S16">
         <v>4.22</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="0"/>
+        <v>7.6865466888583978</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
@@ -7468,6 +7528,10 @@
       <c r="S17">
         <v>4.82</v>
       </c>
+      <c r="U17">
+        <f t="shared" si="0"/>
+        <v>9.7317367411988691</v>
+      </c>
       <c r="Y17" t="s">
         <v>19</v>
       </c>
@@ -7530,6 +7594,10 @@
       <c r="S18">
         <v>1.1299999999999999</v>
       </c>
+      <c r="U18">
+        <f t="shared" si="0"/>
+        <v>7.7132807546464948</v>
+      </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -7589,6 +7657,10 @@
       <c r="S19">
         <v>1.1299999999999999</v>
       </c>
+      <c r="U19">
+        <f t="shared" si="0"/>
+        <v>5.8311233909084796</v>
+      </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -7648,6 +7720,10 @@
       <c r="S20">
         <v>1.1299999999999999</v>
       </c>
+      <c r="U20">
+        <f t="shared" si="0"/>
+        <v>7.3887346683989135</v>
+      </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -7707,6 +7783,10 @@
       <c r="S21">
         <v>4.24</v>
       </c>
+      <c r="U21">
+        <f t="shared" si="0"/>
+        <v>6.6948114237818528</v>
+      </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -7766,6 +7846,10 @@
       <c r="S22">
         <v>6.76</v>
       </c>
+      <c r="U22">
+        <f t="shared" si="0"/>
+        <v>8.6363997128433105</v>
+      </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -7825,6 +7909,10 @@
       <c r="S23">
         <v>6.76</v>
       </c>
+      <c r="U23">
+        <f t="shared" si="0"/>
+        <v>9.6244428410168243</v>
+      </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -7884,6 +7972,10 @@
       <c r="S24">
         <v>6.76</v>
       </c>
+      <c r="U24">
+        <f t="shared" si="0"/>
+        <v>8.7700627135728055</v>
+      </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -7943,6 +8035,10 @@
       <c r="S25">
         <v>5.37</v>
       </c>
+      <c r="U25">
+        <f t="shared" si="0"/>
+        <v>7.6898504536824381</v>
+      </c>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -8002,6 +8098,10 @@
       <c r="S26">
         <v>5.37</v>
       </c>
+      <c r="U26">
+        <f t="shared" si="0"/>
+        <v>22.748090029714582</v>
+      </c>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -8061,6 +8161,10 @@
       <c r="S27">
         <v>5.37</v>
       </c>
+      <c r="U27">
+        <f t="shared" si="0"/>
+        <v>9.1639838498329969</v>
+      </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -8120,6 +8224,10 @@
       <c r="S28">
         <v>5.37</v>
       </c>
+      <c r="U28">
+        <f t="shared" si="0"/>
+        <v>8.0818995291948532</v>
+      </c>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -8179,6 +8287,10 @@
       <c r="S29">
         <v>5.37</v>
       </c>
+      <c r="U29">
+        <f t="shared" si="0"/>
+        <v>8.0816458719743469</v>
+      </c>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -8238,6 +8350,10 @@
       <c r="S30">
         <v>5.37</v>
       </c>
+      <c r="U30">
+        <f t="shared" si="0"/>
+        <v>8.1082180533086312</v>
+      </c>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -8297,6 +8413,10 @@
       <c r="S31">
         <v>5.37</v>
       </c>
+      <c r="U31">
+        <f t="shared" si="0"/>
+        <v>8.0904882423744979</v>
+      </c>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -8355,6 +8475,10 @@
       </c>
       <c r="S32">
         <v>5.37</v>
+      </c>
+      <c r="U32">
+        <f t="shared" si="0"/>
+        <v>8.0991048888133328</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">

--- a/ТЕЛЕМЕТРИЯ/SD-actual.xlsx
+++ b/ТЕЛЕМЕТРИЯ/SD-actual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ученик 10\Desktop\CanSAD\ТЕЛЕМЕТРИЯ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A880DB9-5EDB-4903-94A8-A12CF3B10912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF661A40-ACAB-483E-81C3-108DBFC2D994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FAA43C7E-7477-429C-B918-F62340342FD6}"/>
   </bookViews>
@@ -2234,7 +2234,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="ru-RU" baseline="0"/>
-              <a:t> ускорений на оси</a:t>
+              <a:t> ускорени на оси</a:t>
             </a:r>
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
@@ -3017,6 +3017,831 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Проекции</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> магнитного поля на оси</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Mx</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$J$2:$J$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>271</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>267</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>267</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>272</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>264</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>258</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>378</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>264</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>353</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>298</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>571</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>507</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>276</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>405</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>401</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5501-4BE3-B9E5-813FFE003D53}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>My</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent2">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$J$2:$J$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>271</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>267</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>267</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>272</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>264</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>258</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>378</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>264</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>353</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>298</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>571</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>507</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>276</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>405</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>401</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-5501-4BE3-B9E5-813FFE003D53}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Mz</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent3">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$L$2:$L$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-68</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-80</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-203</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-256</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-190</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-38</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-26</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-63</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-11</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-5501-4BE3-B9E5-813FFE003D53}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="525926048"/>
+        <c:axId val="525914816"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="525926048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1200"/>
+                  <a:t>Время,</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1200" baseline="0"/>
+                  <a:t> с</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="525914816"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="525914816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1200"/>
+          <c:min val="-40"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1200"/>
+                  <a:t>Высота,</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1200" baseline="0"/>
+                  <a:t> м</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="1200"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="525926048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3217,6 +4042,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="236">
   <cs:axisTitle>
@@ -5414,6 +6279,555 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="236">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="236">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6080,16 +7494,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>553811</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>136071</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>515711</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>59871</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>609027</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>164866</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>570927</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>88666</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6149,6 +7563,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>593912</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>144276</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>25521</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>173071</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Диаграмма 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25514C51-60EA-4F8F-94A4-03157AFF920B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6456,8 +7908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{739DEA40-3945-48CC-919B-2FAD2DA287E3}">
   <dimension ref="A1:Y35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AQ18" sqref="AQ18"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="AE4" sqref="AE4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ТЕЛЕМЕТРИЯ/SD-actual.xlsx
+++ b/ТЕЛЕМЕТРИЯ/SD-actual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ученик 10\Desktop\CanSAD\ТЕЛЕМЕТРИЯ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF661A40-ACAB-483E-81C3-108DBFC2D994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FD56C84-8BA2-451E-B671-D4CC579DA13A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FAA43C7E-7477-429C-B918-F62340342FD6}"/>
   </bookViews>
@@ -7908,8 +7908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{739DEA40-3945-48CC-919B-2FAD2DA287E3}">
   <dimension ref="A1:Y35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="AE4" sqref="AE4"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Z26" sqref="Z26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7918,7 +7918,7 @@
     <col min="19" max="19" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -7977,7 +7977,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -8040,7 +8040,7 @@
         <v>8.1805195434030971</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -8103,7 +8103,7 @@
         <v>8.181772424114472</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -8166,7 +8166,7 @@
         <v>8.1802261582428155</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -8229,7 +8229,7 @@
         <v>8.1950106772352651</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -8291,8 +8291,12 @@
         <f t="shared" si="0"/>
         <v>16.007248358165747</v>
       </c>
+      <c r="W6">
+        <f>B6*U6</f>
+        <v>80.03624179082874</v>
+      </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -8354,8 +8358,12 @@
         <f t="shared" si="0"/>
         <v>1.6746044309030117</v>
       </c>
+      <c r="W7">
+        <f t="shared" ref="W7:W32" si="1">B7*U7</f>
+        <v>10.047626585418071</v>
+      </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -8417,8 +8425,12 @@
         <f t="shared" si="0"/>
         <v>2.6161421979701331</v>
       </c>
+      <c r="W8">
+        <f t="shared" si="1"/>
+        <v>18.312995385790931</v>
+      </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -8480,8 +8492,12 @@
         <f t="shared" si="0"/>
         <v>1.5541557193537587</v>
       </c>
+      <c r="W9">
+        <f t="shared" si="1"/>
+        <v>12.43324575483007</v>
+      </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -8543,8 +8559,12 @@
         <f t="shared" si="0"/>
         <v>1.2436237373096415</v>
       </c>
+      <c r="W10">
+        <f t="shared" si="1"/>
+        <v>11.192613635786774</v>
+      </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -8606,8 +8626,12 @@
         <f t="shared" si="0"/>
         <v>0.6166846844214634</v>
       </c>
+      <c r="W11">
+        <f t="shared" si="1"/>
+        <v>6.1668468442146338</v>
+      </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -8669,8 +8693,12 @@
         <f t="shared" si="0"/>
         <v>0.53385391260156556</v>
       </c>
+      <c r="W12">
+        <f t="shared" si="1"/>
+        <v>5.8723930386172212</v>
+      </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -8732,8 +8760,12 @@
         <f t="shared" si="0"/>
         <v>0.55072679252057455</v>
       </c>
+      <c r="W13">
+        <f t="shared" si="1"/>
+        <v>6.6087215102468946</v>
+      </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -8795,8 +8827,12 @@
         <f t="shared" si="0"/>
         <v>4.7990207334413553</v>
       </c>
+      <c r="W14">
+        <f t="shared" si="1"/>
+        <v>62.387269534737619</v>
+      </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -8858,8 +8894,12 @@
         <f t="shared" si="0"/>
         <v>11.265970885813614</v>
       </c>
+      <c r="W15">
+        <f t="shared" si="1"/>
+        <v>157.72359240139059</v>
+      </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -8920,6 +8960,10 @@
       <c r="U16">
         <f t="shared" si="0"/>
         <v>7.6865466888583978</v>
+      </c>
+      <c r="W16">
+        <f t="shared" si="1"/>
+        <v>115.29820033287596</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
@@ -8984,6 +9028,10 @@
         <f t="shared" si="0"/>
         <v>9.7317367411988691</v>
       </c>
+      <c r="W17">
+        <f t="shared" si="1"/>
+        <v>155.70778785918191</v>
+      </c>
       <c r="Y17" t="s">
         <v>19</v>
       </c>
@@ -9050,6 +9098,10 @@
         <f t="shared" si="0"/>
         <v>7.7132807546464948</v>
       </c>
+      <c r="W18">
+        <f t="shared" si="1"/>
+        <v>131.12577282899042</v>
+      </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -9113,6 +9165,10 @@
         <f t="shared" si="0"/>
         <v>5.8311233909084796</v>
       </c>
+      <c r="W19">
+        <f t="shared" si="1"/>
+        <v>104.96022103635264</v>
+      </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -9176,6 +9232,10 @@
         <f t="shared" si="0"/>
         <v>7.3887346683989135</v>
       </c>
+      <c r="W20">
+        <f t="shared" si="1"/>
+        <v>140.38595869957936</v>
+      </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -9239,6 +9299,10 @@
         <f t="shared" si="0"/>
         <v>6.6948114237818528</v>
       </c>
+      <c r="W21">
+        <f t="shared" si="1"/>
+        <v>133.89622847563706</v>
+      </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -9302,6 +9366,10 @@
         <f t="shared" si="0"/>
         <v>8.6363997128433105</v>
       </c>
+      <c r="W22">
+        <f t="shared" si="1"/>
+        <v>181.36439396970951</v>
+      </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -9365,6 +9433,10 @@
         <f t="shared" si="0"/>
         <v>9.6244428410168243</v>
       </c>
+      <c r="W23">
+        <f t="shared" si="1"/>
+        <v>211.73774250237014</v>
+      </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -9428,6 +9500,10 @@
         <f t="shared" si="0"/>
         <v>8.7700627135728055</v>
       </c>
+      <c r="W24">
+        <f t="shared" si="1"/>
+        <v>201.71144241217453</v>
+      </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -9491,6 +9567,10 @@
         <f t="shared" si="0"/>
         <v>7.6898504536824381</v>
       </c>
+      <c r="W25">
+        <f t="shared" si="1"/>
+        <v>184.55641088837851</v>
+      </c>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -9554,6 +9634,10 @@
         <f t="shared" si="0"/>
         <v>22.748090029714582</v>
       </c>
+      <c r="W26">
+        <f t="shared" si="1"/>
+        <v>568.70225074286452</v>
+      </c>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -9617,6 +9701,10 @@
         <f t="shared" si="0"/>
         <v>9.1639838498329969</v>
       </c>
+      <c r="W27">
+        <f t="shared" si="1"/>
+        <v>238.26358009565791</v>
+      </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -9680,6 +9768,10 @@
         <f t="shared" si="0"/>
         <v>8.0818995291948532</v>
       </c>
+      <c r="W28">
+        <f t="shared" si="1"/>
+        <v>218.21128728826105</v>
+      </c>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -9743,6 +9835,10 @@
         <f t="shared" si="0"/>
         <v>8.0816458719743469</v>
       </c>
+      <c r="W29">
+        <f t="shared" si="1"/>
+        <v>226.28608441528172</v>
+      </c>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -9806,6 +9902,10 @@
         <f t="shared" si="0"/>
         <v>8.1082180533086312</v>
       </c>
+      <c r="W30">
+        <f t="shared" si="1"/>
+        <v>235.1383235459503</v>
+      </c>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -9869,6 +9969,10 @@
         <f t="shared" si="0"/>
         <v>8.0904882423744979</v>
       </c>
+      <c r="W31">
+        <f t="shared" si="1"/>
+        <v>242.71464727123492</v>
+      </c>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -9931,6 +10035,10 @@
       <c r="U32">
         <f t="shared" si="0"/>
         <v>8.0991048888133328</v>
+      </c>
+      <c r="W32">
+        <f t="shared" si="1"/>
+        <v>251.07225155321331</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">

--- a/ТЕЛЕМЕТРИЯ/SD-actual.xlsx
+++ b/ТЕЛЕМЕТРИЯ/SD-actual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ученик 10\Desktop\CanSAD\ТЕЛЕМЕТРИЯ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FD56C84-8BA2-451E-B671-D4CC579DA13A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F56A0FD0-7955-451F-8BB9-91C2A38E895D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FAA43C7E-7477-429C-B918-F62340342FD6}"/>
   </bookViews>
@@ -759,6 +759,75 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-CF24-4613-90C5-A3A752E64AF5}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:val>
             <c:numRef>
               <c:f>Лист1!$C$2:$C$32</c:f>
@@ -7908,8 +7977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{739DEA40-3945-48CC-919B-2FAD2DA287E3}">
   <dimension ref="A1:Y35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Z26" sqref="Z26"/>
+    <sheetView tabSelected="1" topLeftCell="K40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ТЕЛЕМЕТРИЯ/SD-actual.xlsx
+++ b/ТЕЛЕМЕТРИЯ/SD-actual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ученик 10\Desktop\CanSAD\ТЕЛЕМЕТРИЯ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F56A0FD0-7955-451F-8BB9-91C2A38E895D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EB3BCE4-7846-4EF5-B984-7FF6C6E6B238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FAA43C7E-7477-429C-B918-F62340342FD6}"/>
   </bookViews>
@@ -1776,35 +1776,6 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -1941,6 +1912,139 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-E450-4B87-8C74-01F7FD25D333}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Модуль ускорения З</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent2">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$S$2:$S$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.64</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.64</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.22</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.82</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.1299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.1299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.1299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.24</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.76</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.76</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.76</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.37</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.37</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5.37</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5.37</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.37</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.37</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.37</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5.37</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3E91-42E0-9439-BEEBE33573C6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7977,7 +8081,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{739DEA40-3945-48CC-919B-2FAD2DA287E3}">
   <dimension ref="A1:Y35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
